--- a/c6-contingência/Cap6-testeIndependencia_Homogeneidade_Ajustamento.xlsx
+++ b/c6-contingência/Cap6-testeIndependencia_Homogeneidade_Ajustamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatib\OneDrive\Documentos\filipabrochado\UA\UCsApoio2021_2022\Bioestatística\excelCalculadoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c6-contingência\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09046C-0430-4A6B-8822-32DFF233B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DFA4C-8BBF-4D0A-AF01-DB4AAC6C64E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{35563B89-869A-4710-B957-23B9EF9A79E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{35563B89-869A-4710-B957-23B9EF9A79E6}"/>
   </bookViews>
   <sheets>
     <sheet name="ꭕ2_testeIndependênciaHomogeneid" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>sim</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Hipóteses do Teste de Homogeneidade:</t>
   </si>
   <si>
-    <t>Intervalo Esperado Calculado'</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Teste de Ajustamento:</t>
   </si>
   <si>
-    <t>Intervalo Observado</t>
-  </si>
-  <si>
     <t>Exemplo 2. Tabela de Contigência (5 colunas*1 linha) presente nos Slides do Cap.6, pág.15.</t>
   </si>
   <si>
@@ -194,13 +188,43 @@
   </si>
   <si>
     <t>Pressupostos para testes de independência e homogeneidade:</t>
+  </si>
+  <si>
+    <t>Valores Observados</t>
+  </si>
+  <si>
+    <t>Valores esperados calculados</t>
+  </si>
+  <si>
+    <t>Teste de Independência</t>
+  </si>
+  <si>
+    <t>Teste de Homogeneidade</t>
+  </si>
+  <si>
+    <t>Teste de Ajustamento</t>
+  </si>
+  <si>
+    <t>As dimnsões das tabelas devem ser ajustadas</t>
+  </si>
+  <si>
+    <t>a cada problema.</t>
+  </si>
+  <si>
+    <t>Estas etapas explicam o processo mas não são obrigatórias para o valor-p</t>
+  </si>
+  <si>
+    <t>Mudar a seleção de células acima</t>
+  </si>
+  <si>
+    <t>&lt;= TESTE.CHI()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +302,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +411,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -546,15 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </left>
@@ -700,7 +734,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -727,11 +761,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -743,110 +777,130 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Nota" xfId="2" builtinId="10"/>
+    <cellStyle name="Saída" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1129,7 +1183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1425,310 +1479,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F62F73-E0AB-4C7A-BEDB-504C59363257}">
-  <dimension ref="B2:Z47"/>
+  <dimension ref="A2:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="6.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" style="18" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="18" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="7.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="8.85546875" style="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="20.3" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-    </row>
-    <row r="5" spans="2:26" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C7" s="73" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C8" s="74" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-    </row>
-    <row r="10" spans="2:26" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="K10" s="34" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="K10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="T10" s="37" t="s">
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="T10" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="66"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="K11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="T11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="K12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="T12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="T13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="K11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="T11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="K12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="T12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="K13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="T13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-    </row>
-    <row r="14" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+    </row>
+    <row r="14" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1743,17 +1797,17 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="T14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-    </row>
-    <row r="15" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+    </row>
+    <row r="15" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1763,25 +1817,20 @@
       <c r="M15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-    </row>
-    <row r="16" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+    </row>
+    <row r="16" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -1789,18 +1838,32 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>2</v>
-      </c>
+    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="L17" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+    </row>
+    <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
         <v>0</v>
@@ -1833,34 +1896,29 @@
       <c r="T18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="V18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
+      <c r="V18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2">
-        <v>78</v>
-      </c>
-      <c r="E19" s="11">
-        <v>128</v>
-      </c>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="73">
         <v>50</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="74">
         <v>78</v>
       </c>
       <c r="J19" s="11">
@@ -1897,34 +1955,23 @@
         <v>1.4618983957219247</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" s="30">
+        <v>16</v>
+      </c>
+      <c r="W19" s="54">
         <v>0.05</v>
       </c>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="32"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>35</v>
-      </c>
-      <c r="E20" s="11">
-        <v>45</v>
-      </c>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="56"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F20" s="32"/>
       <c r="G20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="73">
         <v>10</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="74">
         <v>35</v>
       </c>
       <c r="J20" s="11">
@@ -1961,35 +2008,27 @@
         <v>2.7817389582095471</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="62">
+        <v>17</v>
+      </c>
+      <c r="W20" s="41">
         <f>(3-1)*(2-1)</f>
         <v>2</v>
       </c>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="64"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19</v>
-      </c>
-      <c r="E21" s="11">
-        <v>27</v>
-      </c>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="73">
         <v>8</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="74">
         <v>19</v>
       </c>
       <c r="J21" s="11">
@@ -2026,28 +2065,26 @@
         <v>0.22981448471644542</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="62">
+        <v>15</v>
+      </c>
+      <c r="W21" s="77">
         <f>CHITEST(H19:I21,M19:N21)</f>
         <v>0.10680762933099683</v>
       </c>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="64"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="12">
-        <v>68</v>
-      </c>
-      <c r="D22" s="13">
-        <v>132</v>
-      </c>
-      <c r="E22" s="14">
-        <v>200</v>
-      </c>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2091,435 +2128,440 @@
         <v>4.4734518386479172</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="54">
+        <v>20</v>
+      </c>
+      <c r="W22" s="34">
         <f>CHIINV(W21,W20)</f>
         <v>4.4734518386479172</v>
       </c>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="56"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="G23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="L23" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="Q23" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="L23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="Q23" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
       <c r="V23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="54">
+        <v>19</v>
+      </c>
+      <c r="W23" s="34">
         <f>_xlfn.CHISQ.INV(W19,W20)</f>
         <v>0.10258658877510107</v>
       </c>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="56"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G24" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
     </row>
-    <row r="25" spans="2:26" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="V25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="54" t="str">
+        <v>21</v>
+      </c>
+      <c r="W25" s="34" t="str">
         <f>IF(W21&lt;W19,"Rejeitar H0", "Não rejeitar H0")</f>
         <v>Não rejeitar H0</v>
       </c>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="56"/>
-    </row>
-    <row r="26" spans="2:26" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="49">
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36"/>
+    </row>
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="L27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="G28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="G28" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="49">
+      <c r="I28" s="80">
         <v>24</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="32"/>
       <c r="L28" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28" s="22"/>
-      <c r="N28" s="49">
+      <c r="N28" s="83">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O28" s="50"/>
+      <c r="O28" s="30"/>
       <c r="Q28" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="43">
+        <v>24</v>
+      </c>
+      <c r="R28" s="57">
         <f>(I28-N28)^2/N28</f>
         <v>1.47</v>
       </c>
-      <c r="S28" s="44"/>
-      <c r="V28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="49">
+      <c r="S28" s="58"/>
+      <c r="V28" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="G29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="80">
         <v>32</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="G29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="49">
-        <v>32</v>
-      </c>
-      <c r="J29" s="50"/>
+      <c r="J29" s="32"/>
       <c r="L29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="49">
+      <c r="N29" s="83">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O29" s="50"/>
+      <c r="O29" s="30"/>
       <c r="Q29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="43">
+        <v>25</v>
+      </c>
+      <c r="R29" s="57">
         <f>(I29-N29)^2/N29</f>
         <v>9.3633333333333333</v>
       </c>
-      <c r="S29" s="44"/>
+      <c r="S29" s="58"/>
       <c r="V29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W29" s="30">
+        <v>16</v>
+      </c>
+      <c r="W29" s="54">
         <v>0.05</v>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="49">
+      <c r="X29" s="55"/>
+      <c r="Y29" s="56"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="G30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="80">
         <v>10</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="G30" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="49">
-        <v>10</v>
-      </c>
-      <c r="J30" s="50"/>
+      <c r="J30" s="32"/>
       <c r="L30" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="49">
+      <c r="N30" s="83">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O30" s="50"/>
+      <c r="O30" s="30"/>
       <c r="Q30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R30" s="43">
+        <v>26</v>
+      </c>
+      <c r="R30" s="57">
         <f>(I30-N30)^2/N30</f>
         <v>4.083333333333333</v>
       </c>
-      <c r="S30" s="44"/>
+      <c r="S30" s="58"/>
       <c r="V30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W30" s="62">
+        <v>17</v>
+      </c>
+      <c r="W30" s="41">
         <f>4-1</f>
         <v>3</v>
       </c>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="64"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B31" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="49">
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="G31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="81">
         <v>9</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="G31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="51">
-        <v>9</v>
-      </c>
-      <c r="J31" s="52"/>
+      <c r="J31" s="32"/>
       <c r="L31" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="51">
+      <c r="N31" s="84">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O31" s="52"/>
+      <c r="O31" s="85"/>
       <c r="Q31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R31" s="45">
+        <v>27</v>
+      </c>
+      <c r="R31" s="59">
         <f>(I31-N31)^2/N31</f>
         <v>5.07</v>
       </c>
-      <c r="S31" s="46"/>
+      <c r="S31" s="60"/>
       <c r="V31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W31" s="62">
-        <f>_xlfn.CHISQ.TEST(I28:J31,N28:O31)</f>
+        <v>15</v>
+      </c>
+      <c r="W31" s="77">
+        <f>_xlfn.CHISQ.TEST(I28:I31,N28:N31)</f>
         <v>1.7082585083387185E-4</v>
       </c>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="64"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="41">
-        <f>SUM(D28:D31)</f>
-        <v>75</v>
-      </c>
-      <c r="E32" s="42"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
       <c r="G32" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="24"/>
-      <c r="I32" s="41">
+      <c r="I32" s="82">
         <f>SUM(I28:I31)</f>
         <v>75</v>
       </c>
-      <c r="J32" s="42"/>
+      <c r="J32" s="32"/>
       <c r="L32" s="23" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="24"/>
-      <c r="N32" s="41">
+      <c r="N32" s="82">
         <f>SUM(N28:N31)</f>
         <v>75</v>
       </c>
-      <c r="O32" s="42"/>
+      <c r="O32" s="30"/>
       <c r="Q32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="61">
         <f>SUM(R28:S31)</f>
         <v>19.986666666666668</v>
       </c>
-      <c r="S32" s="48"/>
+      <c r="S32" s="62"/>
       <c r="V32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="54">
+        <v>20</v>
+      </c>
+      <c r="W32" s="34">
         <f>CHIINV(W31,W30)</f>
         <v>19.986666666666665</v>
       </c>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="56"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="G33" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="L33" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="Q33" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="G33" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="32"/>
+      <c r="L33" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="Q33" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
       <c r="V33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W33" s="54">
+        <v>19</v>
+      </c>
+      <c r="W33" s="34">
         <f>CHIINV(W29,W30)</f>
         <v>7.8147279032511792</v>
       </c>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="36"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="G35" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
       <c r="V35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W35" s="54" t="str">
+        <v>21</v>
+      </c>
+      <c r="W35" s="34" t="str">
         <f>IF(W31&lt;W29,"Rejeitar H0", "Não rejeitar H0")</f>
         <v>Rejeitar H0</v>
       </c>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="56"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-    </row>
-    <row r="37" spans="2:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="X35" s="35"/>
+      <c r="Y35" s="36"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U39" s="1"/>
     </row>
-    <row r="43" spans="2:25" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="C8:S8"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B24:E26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="B34:E36"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="C5:X6"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
+  <mergeCells count="50">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="V28:Y28"/>
     <mergeCell ref="K10:Q10"/>
@@ -2534,6 +2576,39 @@
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="W22:Y22"/>
     <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="G35:J37"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="G24:J26"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="C8:S8"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="C5:X6"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/c6-contingência/Cap6-testeIndependencia_Homogeneidade_Ajustamento.xlsx
+++ b/c6-contingência/Cap6-testeIndependencia_Homogeneidade_Ajustamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c6-contingência\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DFA4C-8BBF-4D0A-AF01-DB4AAC6C64E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3257CFB6-521A-4D22-B4E9-A189895E7EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{35563B89-869A-4710-B957-23B9EF9A79E6}"/>
   </bookViews>
@@ -214,17 +214,17 @@
     <t>Estas etapas explicam o processo mas não são obrigatórias para o valor-p</t>
   </si>
   <si>
-    <t>Mudar a seleção de células acima</t>
-  </si>
-  <si>
     <t>&lt;= TESTE.CHI()</t>
+  </si>
+  <si>
+    <t>Mudar a seleção de células.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +297,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -734,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -760,8 +753,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,113 +773,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -896,6 +782,120 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,7 +1482,7 @@
   <dimension ref="A2:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,279 +1508,279 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
     </row>
     <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="K10" s="63" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+      <c r="K10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="T10" s="64" t="s">
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="T10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="66"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="53"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="K11" s="39" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="K11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="T11" s="39" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="T11" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="K12" s="40" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="K12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="T12" s="40" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="T12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="K13" s="40" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="K13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="T13" s="40" t="s">
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="T13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
     </row>
     <row r="14" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
@@ -1797,15 +1797,15 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="T14" s="44" t="s">
+      <c r="T14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
     </row>
     <row r="15" spans="2:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G15" s="7"/>
@@ -1817,13 +1817,13 @@
       <c r="M15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
     </row>
     <row r="16" spans="2:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G16" s="19"/>
@@ -1831,39 +1831,39 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="L17" s="76" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="L17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
     </row>
     <row r="18" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="32"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5" t="s">
         <v>0</v>
@@ -1896,29 +1896,29 @@
       <c r="T18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="V18" s="53" t="s">
+      <c r="V18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="31">
         <v>50</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="32">
         <v>78</v>
       </c>
       <c r="J19" s="11">
@@ -1946,7 +1946,7 @@
         <f t="shared" ref="R19:S21" si="0">(H19-M19)^2/M19</f>
         <v>0.96485294117646958</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="24">
         <f t="shared" si="0"/>
         <v>0.49704545454545512</v>
       </c>
@@ -1957,21 +1957,21 @@
       <c r="V19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="54">
+      <c r="W19" s="44">
         <v>0.05</v>
       </c>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="56"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="46"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F20" s="32"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="31">
         <v>10</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="32">
         <v>35</v>
       </c>
       <c r="J20" s="11">
@@ -2010,25 +2010,25 @@
       <c r="V20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="41">
+      <c r="W20" s="70">
         <f>(3-1)*(2-1)</f>
         <v>2</v>
       </c>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="72"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="31">
         <v>8</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="32">
         <v>19</v>
       </c>
       <c r="J21" s="11">
@@ -2067,24 +2067,24 @@
       <c r="V21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W21" s="77">
+      <c r="W21" s="81">
         <f>CHITEST(H19:I21,M19:N21)</f>
         <v>0.10680762933099683</v>
       </c>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2130,414 +2130,414 @@
       <c r="V22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22" s="56">
         <f>CHIINV(W21,W20)</f>
         <v>4.4734518386479172</v>
       </c>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="68" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="L23" s="45" t="s">
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="L23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="Q23" s="67" t="s">
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="Q23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
       <c r="V23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23" s="56">
         <f>_xlfn.CHISQ.INV(W19,W20)</f>
         <v>0.10258658877510107</v>
       </c>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="36"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
     </row>
     <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="V25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="34" t="str">
+      <c r="W25" s="56" t="str">
         <f>IF(W21&lt;W19,"Rejeitar H0", "Não rejeitar H0")</f>
         <v>Não rejeitar H0</v>
       </c>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="36"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="58"/>
     </row>
     <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="L27" s="75" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="L27" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="71" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="G28" s="21" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="80">
+      <c r="H28" s="87"/>
+      <c r="I28" s="33">
         <v>24</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="L28" s="21" t="s">
+      <c r="J28" s="30"/>
+      <c r="L28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="83">
+      <c r="M28" s="87"/>
+      <c r="N28" s="36">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="Q28" s="27" t="s">
+      <c r="O28" s="28"/>
+      <c r="Q28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="57">
+      <c r="R28" s="62">
         <f>(I28-N28)^2/N28</f>
         <v>1.47</v>
       </c>
-      <c r="S28" s="58"/>
-      <c r="V28" s="53" t="s">
+      <c r="S28" s="63"/>
+      <c r="V28" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="G29" s="21" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="80">
+      <c r="H29" s="87"/>
+      <c r="I29" s="33">
         <v>32</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="L29" s="21" t="s">
+      <c r="J29" s="30"/>
+      <c r="L29" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="83">
+      <c r="M29" s="87"/>
+      <c r="N29" s="36">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O29" s="30"/>
-      <c r="Q29" s="27" t="s">
+      <c r="O29" s="28"/>
+      <c r="Q29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="57">
+      <c r="R29" s="62">
         <f>(I29-N29)^2/N29</f>
         <v>9.3633333333333333</v>
       </c>
-      <c r="S29" s="58"/>
+      <c r="S29" s="63"/>
       <c r="V29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W29" s="54">
+      <c r="W29" s="44">
         <v>0.05</v>
       </c>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="56"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="46"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="G30" s="21" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="G30" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="80">
+      <c r="H30" s="87"/>
+      <c r="I30" s="33">
         <v>10</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="L30" s="21" t="s">
+      <c r="J30" s="30"/>
+      <c r="L30" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="83">
+      <c r="M30" s="87"/>
+      <c r="N30" s="36">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="Q30" s="27" t="s">
+      <c r="O30" s="28"/>
+      <c r="Q30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="62">
         <f>(I30-N30)^2/N30</f>
         <v>4.083333333333333</v>
       </c>
-      <c r="S30" s="58"/>
+      <c r="S30" s="63"/>
       <c r="V30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="41">
+      <c r="W30" s="70">
         <f>4-1</f>
         <v>3</v>
       </c>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="72"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="G31" s="21" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="81">
+      <c r="H31" s="87"/>
+      <c r="I31" s="34">
         <v>9</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="L31" s="21" t="s">
+      <c r="J31" s="30"/>
+      <c r="L31" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="84">
+      <c r="M31" s="87"/>
+      <c r="N31" s="37">
         <f>1/4*$I$32</f>
         <v>18.75</v>
       </c>
-      <c r="O31" s="85"/>
-      <c r="Q31" s="27" t="s">
+      <c r="O31" s="38"/>
+      <c r="Q31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R31" s="59">
+      <c r="R31" s="64">
         <f>(I31-N31)^2/N31</f>
         <v>5.07</v>
       </c>
-      <c r="S31" s="60"/>
+      <c r="S31" s="65"/>
       <c r="V31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W31" s="77">
+      <c r="W31" s="81">
         <f>_xlfn.CHISQ.TEST(I28:I31,N28:N31)</f>
         <v>1.7082585083387185E-4</v>
       </c>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="86"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="G32" s="23" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="G32" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="82">
+      <c r="H32" s="22"/>
+      <c r="I32" s="35">
         <f>SUM(I28:I31)</f>
         <v>75</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="L32" s="23" t="s">
+      <c r="J32" s="30"/>
+      <c r="L32" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="82">
+      <c r="M32" s="22"/>
+      <c r="N32" s="35">
         <f>SUM(N28:N31)</f>
         <v>75</v>
       </c>
-      <c r="O32" s="30"/>
-      <c r="Q32" s="28" t="s">
+      <c r="O32" s="28"/>
+      <c r="Q32" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="R32" s="61">
+      <c r="R32" s="66">
         <f>SUM(R28:S31)</f>
         <v>19.986666666666668</v>
       </c>
-      <c r="S32" s="62"/>
+      <c r="S32" s="67"/>
       <c r="V32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="34">
+      <c r="W32" s="56">
         <f>CHIINV(W31,W30)</f>
         <v>19.986666666666665</v>
       </c>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-      <c r="AC32" s="86"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="G33" s="68" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="G33" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="32"/>
-      <c r="L33" s="31" t="s">
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="30"/>
+      <c r="L33" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
-      <c r="Q33" s="47" t="s">
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="Q33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
       <c r="V33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W33" s="34">
+      <c r="W33" s="56">
         <f>CHIINV(W29,W30)</f>
         <v>7.8147279032511792</v>
       </c>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="36"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="58"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="G35" s="46" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
       <c r="V35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="34" t="str">
+      <c r="W35" s="56" t="str">
         <f>IF(W31&lt;W29,"Rejeitar H0", "Não rejeitar H0")</f>
         <v>Rejeitar H0</v>
       </c>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="36"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="58"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U39" s="1"/>
@@ -2558,41 +2558,7 @@
       <c r="U47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="T14:Z15"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="G35:J37"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="G24:J26"/>
+  <mergeCells count="58">
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="W23:Y23"/>
     <mergeCell ref="C7:S7"/>
@@ -2609,8 +2575,51 @@
     <mergeCell ref="V18:Y18"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="G35:J37"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="T14:Z15"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="G24:J26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>